--- a/Zagueiros.xlsx
+++ b/Zagueiros.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,11 +415,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0', 'titular'})</t>
+          <t>frozenset({'FD_0.0', 'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -451,7 +451,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -559,497 +559,497 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'nota_1.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6650366748166259</v>
+        <v>0.5672371638141809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.839242053789731</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5360635696821516</v>
+        <v>0.4572127139364303</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8060661764705883</v>
+        <v>0.8060344827586208</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9604692386787199</v>
+        <v>1.026204213068563</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02206317513644696</v>
+        <v>0.01167496607504742</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8289319690842307</v>
+        <v>1.106112469437653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'titular'})</t>
+          <t>frozenset({'FF_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6864303178484108</v>
+        <v>0.6650366748166259</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7163814180929096</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5550122249388753</v>
+        <v>0.5360635696821516</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8085485307212822</v>
+        <v>0.8060661764705883</v>
       </c>
       <c r="H7" t="n">
-        <v>1.128656481450527</v>
+        <v>0.9604692386787199</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06326630041666409</v>
+        <v>-0.02206317513644696</v>
       </c>
       <c r="J7" t="n">
-        <v>1.481412406891453</v>
+        <v>0.8289319690842307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'FD_0.0'})</t>
+          <t>frozenset({'RB_0.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6925427872860636</v>
+        <v>0.5354523227383863</v>
       </c>
       <c r="E8" t="n">
-        <v>0.839242053789731</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5605134474327629</v>
+        <v>0.4327628361858191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8093556928508385</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9643888663539489</v>
+        <v>1.02898566174511</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02069758370645791</v>
+        <v>0.01219056557528952</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8432349678529387</v>
+        <v>1.118712888578415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'titular', 'FF_0.0'})</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.6864303178484108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8331295843520783</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.5550122249388753</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8093645484949832</v>
+        <v>0.8085485307212822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.971474982639613</v>
+        <v>1.128656481450527</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01737346142120155</v>
+        <v>0.06326630041666409</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8753377943636591</v>
+        <v>1.481412406891453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'RB_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'titular'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.839242053789731</v>
+        <v>0.5287286063569682</v>
       </c>
       <c r="E10" t="n">
-        <v>0.726161369193154</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6797066014669927</v>
+        <v>0.4278728606356968</v>
       </c>
       <c r="G10" t="n">
-        <v>0.809905316824472</v>
+        <v>0.8092485549132948</v>
       </c>
       <c r="H10" t="n">
-        <v>1.115324156839088</v>
+        <v>1.030296214660039</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07028144260256697</v>
+        <v>0.01258174867438622</v>
       </c>
       <c r="J10" t="n">
-        <v>1.440538084665899</v>
+        <v>1.124749944432097</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0'})</t>
+          <t>frozenset({'FF_0.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7854523227383863</v>
+        <v>0.6925427872860636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8331295843520783</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6375305623471883</v>
+        <v>0.5605134474327629</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8116731517509729</v>
+        <v>0.8093556928508385</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9742459840532587</v>
+        <v>0.9643888663539489</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01685300482421792</v>
+        <v>-0.02069758370645791</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8860681161470229</v>
+        <v>0.8432349678529387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'titular'})</t>
+          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.726161369193154</v>
+        <v>0.7310513447432763</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7163814180929096</v>
+        <v>0.8331295843520783</v>
       </c>
       <c r="F12" t="n">
         <v>0.5916870415647921</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8093645484949832</v>
       </c>
       <c r="H12" t="n">
-        <v>1.137403615219315</v>
+        <v>0.971474982639613</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07147853013791161</v>
+        <v>-0.01737346142120155</v>
       </c>
       <c r="J12" t="n">
-        <v>1.531540342298288</v>
+        <v>0.8753377943636591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0'})</t>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.539119804400978</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7854523227383863</v>
+        <v>0.726161369193154</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5959657701711492</v>
+        <v>0.4364303178484107</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8152173913043479</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H13" t="n">
-        <v>1.037895449162578</v>
+        <v>1.114798781465448</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02175979340152201</v>
+        <v>0.04494234252545121</v>
       </c>
       <c r="J13" t="n">
-        <v>1.16108154753344</v>
+        <v>1.437652811735942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8331295843520783</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.726161369193154</v>
       </c>
       <c r="F14" t="n">
         <v>0.6797066014669927</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8158473954512105</v>
+        <v>0.809905316824472</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9828618107203095</v>
+        <v>1.115324156839088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01185206329469579</v>
+        <v>0.07028144260256697</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9227491013939351</v>
+        <v>1.440538084665899</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.839242053789731</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.8331295843520783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6852078239608802</v>
+        <v>0.6375305623471883</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8164603058994901</v>
+        <v>0.8116731517509729</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9836001917905492</v>
+        <v>0.9742459840532587</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01142463878145161</v>
+        <v>-0.01685300482421792</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9258305196569253</v>
+        <v>0.8860681161470229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.726161369193154</v>
       </c>
       <c r="E16" t="n">
-        <v>0.839242053789731</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5971882640586798</v>
+        <v>0.5916870415647921</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8168896321070235</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9733659418259945</v>
+        <v>1.137403615219315</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01634076792941208</v>
+        <v>0.07147853013791161</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8779292404907842</v>
+        <v>1.531540342298288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'FD_0.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.5843520782396088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="F17" t="n">
-        <v>0.726161369193154</v>
+        <v>0.476161369193154</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8170563961485557</v>
+        <v>0.8148535564853557</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9843183093512792</v>
+        <v>1.037432232225714</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01156885719238887</v>
+        <v>0.01718067204285012</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9288471790723754</v>
+        <v>1.158799883966683</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
-        </is>
-      </c>
       <c r="D18" t="n">
+        <v>0.7310513447432763</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.7854523227383863</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.839242053789731</v>
-      </c>
       <c r="F18" t="n">
-        <v>0.6430317848410758</v>
+        <v>0.5959657701711492</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8186770428015565</v>
+        <v>0.8152173913043479</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9754957334474482</v>
+        <v>1.037895449162578</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01615283564780212</v>
+        <v>0.02175979340152201</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8865835230909687</v>
+        <v>1.16108154753344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
-        </is>
-      </c>
       <c r="D19" t="n">
+        <v>0.8331295843520783</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.8300733496332519</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8331295843520783</v>
       </c>
       <c r="F19" t="n">
         <v>0.6797066014669927</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8188512518409425</v>
+        <v>0.8158473954512105</v>
       </c>
       <c r="H19" t="n">
         <v>0.9828618107203095</v>
@@ -1058,52 +1058,52 @@
         <v>-0.01185206329469579</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9211789611783644</v>
+        <v>0.9227491013939351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8331295843520783</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7102689486552567</v>
+        <v>0.6852078239608802</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8217821782178217</v>
+        <v>0.8164603058994901</v>
       </c>
       <c r="H20" t="n">
-        <v>0.986379782512367</v>
+        <v>0.9836001917905492</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.009807599189388005</v>
+        <v>-0.01142463878145161</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9363284433577826</v>
+        <v>0.9258305196569253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1112,142 +1112,142 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.7310513447432763</v>
       </c>
       <c r="E21" t="n">
         <v>0.839242053789731</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6852078239608802</v>
+        <v>0.5971882640586798</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8254786450662739</v>
+        <v>0.8168896321070235</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9836001917905492</v>
+        <v>0.9733659418259945</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01142463878145161</v>
+        <v>-0.01634076792941208</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9211362487491358</v>
+        <v>0.8779292404907842</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7163814180929096</v>
+        <v>0.5342298288508558</v>
       </c>
       <c r="E22" t="n">
-        <v>0.726161369193154</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.4364303178484107</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8259385665529009</v>
+        <v>0.8169336384439359</v>
       </c>
       <c r="H22" t="n">
-        <v>1.137403615219315</v>
+        <v>0.984170421571634</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07147853013791161</v>
+        <v>-0.007019625659817952</v>
       </c>
       <c r="J22" t="n">
-        <v>1.573229780909918</v>
+        <v>0.9282243276283614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6430317848410758</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="E23" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.726161369193154</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.5311735941320294</v>
-      </c>
       <c r="G23" t="n">
-        <v>0.8260456273764258</v>
+        <v>0.8170563961485557</v>
       </c>
       <c r="H23" t="n">
-        <v>1.137551049148007</v>
+        <v>0.9843183093512792</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06422875281711615</v>
+        <v>-0.01156885719238887</v>
       </c>
       <c r="J23" t="n">
-        <v>1.574198030649191</v>
+        <v>0.9288471790723754</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.539119804400978</v>
       </c>
       <c r="E24" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7163814180929096</v>
+        <v>0.4407090464547677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8288543140028289</v>
+        <v>0.8174603174603176</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9876224746603264</v>
+        <v>0.9848049185309864</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.008978156515085378</v>
+        <v>-0.006799935437975635</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9393046939723985</v>
+        <v>0.9309025194004469</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'titular'})</t>
+          <t>frozenset({'mando'})</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1256,133 +1256,133 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6864303178484108</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
         <v>0.8300733496332519</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5715158924205379</v>
+        <v>0.4089242053789731</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8325912733748887</v>
+        <v>0.8178484107579462</v>
       </c>
       <c r="H25" t="n">
-        <v>1.003033374993607</v>
+        <v>0.9852724594992637</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001728379194289809</v>
+        <v>-0.006112469437652812</v>
       </c>
       <c r="J25" t="n">
-        <v>1.015040576392863</v>
+        <v>0.9328859060402684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0', 'RB_0.0'})</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7102689486552567</v>
+        <v>0.4951100244498777</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.4052567237163814</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8330464716006885</v>
+        <v>0.8185185185185186</v>
       </c>
       <c r="H26" t="n">
-        <v>1.003581758128664</v>
+        <v>0.9209740689795712</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002111716214035053</v>
+        <v>-0.03477382368589371</v>
       </c>
       <c r="J26" t="n">
-        <v>1.017808081062687</v>
+        <v>0.6129933636046112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6375305623471883</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5311735941320294</v>
+        <v>0.6430317848410758</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8331735378715245</v>
+        <v>0.8186770428015565</v>
       </c>
       <c r="H27" t="n">
-        <v>1.003734836493236</v>
+        <v>0.9754957334474482</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001976464750928053</v>
+        <v>-0.01615283564780212</v>
       </c>
       <c r="J27" t="n">
-        <v>1.018583312255853</v>
+        <v>0.8865835230909687</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7597799511002445</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.8331295843520783</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6332518337408313</v>
+        <v>0.6797066014669927</v>
       </c>
       <c r="G28" t="n">
-        <v>0.833467417538214</v>
+        <v>0.8188512518409425</v>
       </c>
       <c r="H28" t="n">
-        <v>1.004088877093165</v>
+        <v>0.9828618107203095</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002578744746863038</v>
+        <v>-0.01185206329469579</v>
       </c>
       <c r="J28" t="n">
-        <v>1.020380803893082</v>
+        <v>0.9211789611783644</v>
       </c>
     </row>
     <row r="29">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1400,322 +1400,322 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7163814180929096</v>
+        <v>0.5788508557457213</v>
       </c>
       <c r="E29" t="n">
         <v>0.8300733496332519</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5971882640586798</v>
+        <v>0.4743276283618582</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8336177474402731</v>
+        <v>0.8194297782470962</v>
       </c>
       <c r="H29" t="n">
-        <v>1.004269981452347</v>
+        <v>0.9871775531754413</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002539140727279232</v>
+        <v>-0.006161040405066931</v>
       </c>
       <c r="J29" t="n">
-        <v>1.021302739640148</v>
+        <v>0.9410557771772547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'RB_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6430317848410758</v>
+        <v>0.5287286063569682</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5360635696821516</v>
+        <v>0.4339853300733496</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8336501901140685</v>
+        <v>0.8208092485549133</v>
       </c>
       <c r="H30" t="n">
-        <v>1.004309065557155</v>
+        <v>0.9235515341374404</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002300022118471357</v>
+        <v>-0.03592383474512939</v>
       </c>
       <c r="J30" t="n">
-        <v>1.021501921061823</v>
+        <v>0.6208297184320534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>frozenset({'FS_0.0'})</t>
+          <t>frozenset({'FD_0.0', 'nota_1.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6778728606356969</v>
+        <v>0.4987775061124695</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.7854523227383863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5672371638141809</v>
+        <v>0.4095354523227384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8367899008115418</v>
+        <v>0.821078431372549</v>
       </c>
       <c r="H31" t="n">
-        <v>1.008091515263389</v>
+        <v>1.04535744258793</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004552967760833471</v>
+        <v>0.01776950161703961</v>
       </c>
       <c r="J31" t="n">
-        <v>1.041152791473611</v>
+        <v>1.199115785242992</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>frozenset({'RB_0.0'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6246943765281173</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8331295843520783</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5250611246943765</v>
+        <v>0.7102689486552567</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8405088062622309</v>
+        <v>0.8217821782178217</v>
       </c>
       <c r="H32" t="n">
-        <v>0.945716923689828</v>
+        <v>0.986379782512367</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.03013791165762991</v>
+        <v>-0.009807599189388005</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6975115124424379</v>
+        <v>0.9363284433577826</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'titular', 'FF_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.5715158924205379</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.4712713936430318</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8458274398868458</v>
+        <v>0.8245989304812834</v>
       </c>
       <c r="H33" t="n">
-        <v>1.018979154385037</v>
+        <v>1.151061305688891</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01361631028030674</v>
+        <v>0.06184802816817209</v>
       </c>
       <c r="J33" t="n">
-        <v>1.102184787241201</v>
+        <v>1.616971793189814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>frozenset({'FD_0.0', 'titular'})</t>
-        </is>
-      </c>
       <c r="D34" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.839242053789731</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.7597799511002445</v>
-      </c>
       <c r="F34" t="n">
-        <v>0.7102689486552567</v>
+        <v>0.6852078239608802</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8463219227967953</v>
+        <v>0.8254786450662739</v>
       </c>
       <c r="H34" t="n">
-        <v>1.113903994928043</v>
+        <v>0.9836001917905492</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07262966206562604</v>
+        <v>-0.01142463878145161</v>
       </c>
       <c r="J34" t="n">
-        <v>1.563138043314522</v>
+        <v>0.9211362487491358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>frozenset({'RB_0.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6246943765281173</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.726161369193154</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5287286063569682</v>
+        <v>0.5916870415647921</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8463796477495107</v>
+        <v>0.8259385665529009</v>
       </c>
       <c r="H35" t="n">
-        <v>1.019644406272606</v>
+        <v>1.137403615219315</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01018645273521801</v>
+        <v>0.07147853013791161</v>
       </c>
       <c r="J35" t="n">
-        <v>1.106146730412844</v>
+        <v>1.573229780909918</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0'})</t>
+          <t>frozenset({'FD_0.0', 'nota_1.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7854523227383863</v>
+        <v>0.4987775061124695</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6650366748166259</v>
+        <v>0.4119804400977995</v>
       </c>
       <c r="G36" t="n">
-        <v>0.846692607003891</v>
+        <v>0.8259803921568627</v>
       </c>
       <c r="H36" t="n">
-        <v>1.020021432296293</v>
+        <v>0.9293699598133613</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01305363430395556</v>
+        <v>-0.03130959284078888</v>
       </c>
       <c r="J36" t="n">
-        <v>1.108404800615591</v>
+        <v>0.639278212059644</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'FD_0.0', 'titular'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0'})</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.597799511002445</v>
+        <v>0.6430317848410758</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.726161369193154</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5067237163814181</v>
+        <v>0.5311735941320294</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8476482617586912</v>
+        <v>0.8260456273764258</v>
       </c>
       <c r="H37" t="n">
-        <v>1.021172721824167</v>
+        <v>1.137551049148007</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0105062738744986</v>
+        <v>0.06422875281711615</v>
       </c>
       <c r="J37" t="n">
-        <v>1.115357476903891</v>
+        <v>1.574198030649191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'FF_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'RB_0.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1724,88 +1724,88 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5959657701711492</v>
+        <v>0.5354523227383863</v>
       </c>
       <c r="E38" t="n">
         <v>0.8887530562347188</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5067237163814181</v>
+        <v>0.4425427872860636</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8502564102564103</v>
+        <v>0.8264840182648402</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9566846541812155</v>
+        <v>0.9299366257780458</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02294268326946869</v>
+        <v>-0.03334210101565627</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7429162340489672</v>
+        <v>0.641133702226226</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular', 'RB_0.0'})</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8331295843520783</v>
+        <v>0.5250611246943765</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7102689486552567</v>
+        <v>0.4339853300733496</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8525311812179016</v>
+        <v>0.8265424912689173</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9863797825123671</v>
+        <v>0.9957463296877384</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.009807599189388005</v>
+        <v>-0.001853916463914029</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9201729737619967</v>
+        <v>0.9796442460740714</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>frozenset({'FD_0.0'})</t>
-        </is>
-      </c>
       <c r="D40" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.839242053789731</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.8643031784841075</v>
       </c>
       <c r="F40" t="n">
         <v>0.7163814180929096</v>
       </c>
       <c r="G40" t="n">
-        <v>0.85360524399126</v>
+        <v>0.8288543140028289</v>
       </c>
       <c r="H40" t="n">
         <v>0.9876224746603264</v>
@@ -1814,160 +1814,160 @@
         <v>-0.008978156515085378</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9269240594095541</v>
+        <v>0.9393046939723985</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>frozenset({'FS_0.0'})</t>
+          <t>frozenset({'titular', 'FF_0.0'})</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.6778728606356969</v>
+        <v>0.6864303178484108</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5788508557457213</v>
+        <v>0.5715158924205379</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8539224526600541</v>
+        <v>0.8325912733748887</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9608095822227294</v>
+        <v>1.003033374993607</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.0236107208828259</v>
+        <v>0.001728379194289809</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7615608681215854</v>
+        <v>1.015040576392863</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.7102689486552567</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7597799511002445</v>
+        <v>0.5916870415647921</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8548830811554333</v>
+        <v>0.8330464716006885</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9891009340666824</v>
+        <v>1.003581758128664</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.00837214029088762</v>
+        <v>0.002111716214035053</v>
       </c>
       <c r="J42" t="n">
-        <v>0.935086153953117</v>
+        <v>1.017808081062687</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>frozenset({'RB_0.0'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0', 'FF_0.0'})</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6246943765281173</v>
+        <v>0.6375305623471883</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5354523227383863</v>
+        <v>0.5311735941320294</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8331735378715245</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9917154980804203</v>
+        <v>1.003734836493236</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.004473012476013394</v>
+        <v>0.001976464750928053</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9498777506112469</v>
+        <v>1.018583312255853</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.6650366748166259</v>
+        <v>0.7597799511002445</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5715158924205379</v>
+        <v>0.6332518337408313</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8593750000000001</v>
+        <v>0.833467417538214</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9669446354883083</v>
+        <v>1.004088877093165</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.01953748483091322</v>
+        <v>0.002578744746863038</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7910893778864448</v>
+        <v>1.020380803893082</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'FD_0.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1976,286 +1976,286 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6925427872860636</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="E45" t="n">
         <v>0.8300733496332519</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5959657701711492</v>
+        <v>0.5971882640586798</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8605472197705207</v>
+        <v>0.8336177474402731</v>
       </c>
       <c r="H45" t="n">
-        <v>1.036712261814854</v>
+        <v>1.004269981452347</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02110445896425772</v>
+        <v>0.002539140727279232</v>
       </c>
       <c r="J45" t="n">
-        <v>1.218524651047631</v>
+        <v>1.021302739640148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>frozenset({'FS_0.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0'})</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6778728606356969</v>
+        <v>0.6430317848410758</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5843520782396088</v>
+        <v>0.5360635696821516</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8620378719567177</v>
+        <v>0.8336501901140685</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9973790371436988</v>
+        <v>1.004309065557155</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.001535589815938487</v>
+        <v>0.002300022118471357</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9835802291576773</v>
+        <v>1.021501921061823</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'titular'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6430317848410758</v>
+        <v>0.5385085574572127</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7597799511002445</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5550122249388753</v>
+        <v>0.4492665036674817</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8631178707224334</v>
+        <v>0.8342792281498298</v>
       </c>
       <c r="H47" t="n">
-        <v>1.136010327032905</v>
+        <v>0.9387075772029723</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06644956689641968</v>
+        <v>-0.02933462258116581</v>
       </c>
       <c r="J47" t="n">
-        <v>1.754940912795435</v>
+        <v>0.6712914894329642</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'FD_0.0'})</t>
+          <t>frozenset({'mando'})</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.6925427872860636</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8331295843520783</v>
       </c>
       <c r="F48" t="n">
-        <v>0.597799511002445</v>
+        <v>0.4174816625916871</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8631950573698147</v>
+        <v>0.8349633251833741</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9712428568480171</v>
+        <v>1.002201027146002</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.01770000777135472</v>
+        <v>0.000916870415647919</v>
       </c>
       <c r="J48" t="n">
-        <v>0.813179272813314</v>
+        <v>1.011111111111111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'titular'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6852078239608802</v>
+        <v>0.5672371638141809</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7597799511002445</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.4743276283618582</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8635147190008919</v>
+        <v>0.8362068965517242</v>
       </c>
       <c r="H49" t="n">
-        <v>1.136532647051858</v>
+        <v>0.9408765355974008</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07107987458228959</v>
+        <v>-0.02980613458790887</v>
       </c>
       <c r="J49" t="n">
-        <v>1.760043626252455</v>
+        <v>0.6791918671985593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'FS_0.0'})</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.6778728606356969</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6332518337408313</v>
+        <v>0.5672371638141809</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8662207357859532</v>
+        <v>0.8367899008115418</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9746472652997382</v>
+        <v>1.008091515263389</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.01647228316425653</v>
+        <v>0.004552967760833471</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8315709046454769</v>
+        <v>1.041152791473611</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>frozenset({'titular', 'nota_1.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular', 'FD_0.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.6797066014669927</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.4119804400977995</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8705035971223021</v>
+        <v>0.8383084577114428</v>
       </c>
       <c r="H51" t="n">
-        <v>1.007173893134432</v>
+        <v>1.009920940217909</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004214465480239848</v>
+        <v>0.004047082454074258</v>
       </c>
       <c r="J51" t="n">
-        <v>1.047881010594947</v>
+        <v>1.05093097611435</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'titular', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.6375305623471883</v>
+        <v>0.539119804400978</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.7597799511002445</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5550122249388753</v>
+        <v>0.452322738386308</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8705656759348033</v>
+        <v>0.8390022675736961</v>
       </c>
       <c r="H52" t="n">
-        <v>1.007245718408301</v>
+        <v>1.104270080249853</v>
       </c>
       <c r="I52" t="n">
-        <v>0.003992533521439912</v>
+        <v>0.04271031976135958</v>
       </c>
       <c r="J52" t="n">
-        <v>1.048383591415375</v>
+        <v>1.492071007954819</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'titular'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'RB_0.0'})</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2264,210 +2264,210 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.6864303178484108</v>
+        <v>0.4792176039119804</v>
       </c>
       <c r="E53" t="n">
         <v>0.8643031784841075</v>
       </c>
       <c r="F53" t="n">
-        <v>0.597799511002445</v>
+        <v>0.402200488997555</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8708815672306321</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>1.007611205084381</v>
+        <v>0.9710547585370782</v>
       </c>
       <c r="I53" t="n">
-        <v>0.004515605478207285</v>
+        <v>-0.01198880924910778</v>
       </c>
       <c r="J53" t="n">
-        <v>1.050948486636877</v>
+        <v>0.8443357783211087</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'RB_0.0'})</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.6852078239608802</v>
+        <v>0.6246943765281173</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5971882640586798</v>
+        <v>0.5250611246943765</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8715432649420161</v>
+        <v>0.8405088062622309</v>
       </c>
       <c r="H54" t="n">
-        <v>1.008376790272375</v>
+        <v>0.945716923689828</v>
       </c>
       <c r="I54" t="n">
-        <v>0.004960963887112202</v>
+        <v>-0.03013791165762991</v>
       </c>
       <c r="J54" t="n">
-        <v>1.056362061939691</v>
+        <v>0.6975115124424379</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0', 'FD_0.0', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.6430317848410758</v>
+        <v>0.5605134474327629</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.726161369193154</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5605134474327629</v>
+        <v>0.4712713936430318</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8716730038022814</v>
+        <v>0.8407851690294438</v>
       </c>
       <c r="H55" t="n">
-        <v>1.008526898317208</v>
+        <v>1.157848936474891</v>
       </c>
       <c r="I55" t="n">
-        <v>0.004739031928312265</v>
+        <v>0.06424818120408171</v>
       </c>
       <c r="J55" t="n">
-        <v>1.057430046183103</v>
+        <v>1.719931674314231</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'titular'})</t>
+          <t>frozenset({'FD_0.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.726161369193154</v>
+        <v>0.5843520782396088</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6332518337408313</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8720538720538721</v>
+        <v>0.8410041841004184</v>
       </c>
       <c r="H56" t="n">
-        <v>1.008967563423009</v>
+        <v>0.9462743089327955</v>
       </c>
       <c r="I56" t="n">
-        <v>0.005628254254816834</v>
+        <v>-0.02790215266527574</v>
       </c>
       <c r="J56" t="n">
-        <v>1.060577789216318</v>
+        <v>0.6996847252605846</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0'})</t>
+          <t>frozenset({'mando'})</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.7854523227383863</v>
+        <v>0.5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6864303178484108</v>
+        <v>0.4205378973105134</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8739299610894943</v>
+        <v>0.8410757946210269</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9833214692863911</v>
+        <v>1.002184996358339</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.01164283451198866</v>
+        <v>0.000916870415647919</v>
       </c>
       <c r="J57" t="n">
-        <v>0.882421745298682</v>
+        <v>1.011538461538461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'titular', 'RB_0.0'})</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.5250611246943765</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.726161369193154</v>
+        <v>0.4425427872860636</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8748159057437407</v>
+        <v>0.8428405122235157</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9843183093512791</v>
+        <v>0.9751676647791173</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.01156885719238887</v>
+        <v>-0.01126921168572637</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8886667625485397</v>
+        <v>0.8634338494974196</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2476,110 +2476,110 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0.8643031784841075</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7597799511002445</v>
+        <v>0.7310513447432763</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8790664780763792</v>
+        <v>0.8458274398868458</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9891009340666825</v>
+        <v>1.018979154385037</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.00837214029088762</v>
+        <v>0.01361631028030674</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9199016285620337</v>
+        <v>1.102184787241201</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8300733496332519</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.7597799511002445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.7102689486552567</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8807069219440353</v>
+        <v>0.8463219227967953</v>
       </c>
       <c r="H60" t="n">
-        <v>1.018979154385037</v>
+        <v>1.113903994928043</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01361631028030674</v>
+        <v>0.07262966206562604</v>
       </c>
       <c r="J60" t="n">
-        <v>1.137507923571493</v>
+        <v>1.563138043314522</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0'})</t>
+          <t>frozenset({'RB_0.0'})</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7854523227383863</v>
+        <v>0.6246943765281173</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8643031784841075</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6925427872860636</v>
+        <v>0.5287286063569682</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8817120622568093</v>
+        <v>0.8463796477495107</v>
       </c>
       <c r="H61" t="n">
-        <v>1.020142103148614</v>
+        <v>1.019644406272606</v>
       </c>
       <c r="I61" t="n">
-        <v>0.01367384819555129</v>
+        <v>0.01018645273521801</v>
       </c>
       <c r="J61" t="n">
-        <v>1.14717378715738</v>
+        <v>1.106146730412844</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'nota_1.0', 'titular'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2588,430 +2588,430 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5715158924205379</v>
+        <v>0.5342298288508558</v>
       </c>
       <c r="E62" t="n">
         <v>0.8643031784841075</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5067237163814181</v>
+        <v>0.452322738386308</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8866310160427807</v>
+        <v>0.8466819221967962</v>
       </c>
       <c r="H62" t="n">
-        <v>1.025833339636485</v>
+        <v>0.9796121815515973</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01276071400816592</v>
+        <v>-0.009413800730507405</v>
       </c>
       <c r="J62" t="n">
-        <v>1.196948378465655</v>
+        <v>0.8850673283947006</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'nota_1.0'})</t>
+          <t>frozenset({'FF_0.0'})</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D63" t="n">
+        <v>0.7854523227383863</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.6650366748166259</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.8643031784841075</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.5959657701711492</v>
-      </c>
       <c r="G63" t="n">
-        <v>0.896139705882353</v>
+        <v>0.846692607003891</v>
       </c>
       <c r="H63" t="n">
-        <v>1.036834907230219</v>
+        <v>1.020021432296293</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02117245831863757</v>
+        <v>0.01305363430395556</v>
       </c>
       <c r="J63" t="n">
-        <v>1.306532228400807</v>
+        <v>1.108404800615591</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>frozenset({'FS_0.0', 'titular'})</t>
+          <t>frozenset({'titular', 'FF_0.0', 'FD_0.0'})</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.5788508557457213</v>
+        <v>0.597799511002445</v>
       </c>
       <c r="E64" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5342298288508558</v>
+        <v>0.5067237163814181</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9229144667370646</v>
+        <v>0.8476482617586912</v>
       </c>
       <c r="H64" t="n">
-        <v>1.099699976388811</v>
+        <v>1.021172721824167</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04843384783687332</v>
+        <v>0.0105062738744986</v>
       </c>
       <c r="J64" t="n">
-        <v>2.085448973440069</v>
+        <v>1.115357476903891</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'FD_0.0', 'titular'})</t>
+          <t>frozenset({'tempo_jogado_2.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.597799511002445</v>
+        <v>0.539119804400978</v>
       </c>
       <c r="E65" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5550122249388753</v>
+        <v>0.4572127139364303</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9284253578732106</v>
+        <v>0.8480725623582767</v>
       </c>
       <c r="H65" t="n">
-        <v>1.10626648614754</v>
+        <v>0.9812211541853895</v>
       </c>
       <c r="I65" t="n">
-        <v>0.05331373557068642</v>
+        <v>-0.008750246591065269</v>
       </c>
       <c r="J65" t="n">
-        <v>2.246018162766327</v>
+        <v>0.8931686311717699</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'titular'})</t>
+          <t>frozenset({'titular', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.6864303178484108</v>
+        <v>0.5788508557457213</v>
       </c>
       <c r="E66" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6375305623471883</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9287622439893143</v>
+        <v>0.8489968321013728</v>
       </c>
       <c r="H66" t="n">
-        <v>1.106667903253109</v>
+        <v>0.9822905355854639</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06144937261255012</v>
+        <v>-0.008860091701986428</v>
       </c>
       <c r="J66" t="n">
-        <v>2.256639669926649</v>
+        <v>0.8986355942346167</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'nota_1.0', 'titular'})</t>
+          <t>frozenset({'FF_0.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5715158924205379</v>
+        <v>0.5385085574572127</v>
       </c>
       <c r="E67" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5311735941320294</v>
+        <v>0.4572127139364303</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.8490351872871736</v>
       </c>
       <c r="H67" t="n">
-        <v>1.107441840538109</v>
+        <v>1.022843568778951</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05153342280354617</v>
+        <v>0.01021111184175127</v>
       </c>
       <c r="J67" t="n">
-        <v>2.277404237978811</v>
+        <v>1.125604353181241</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0', 'titular'})</t>
+          <t>frozenset({'titular', 'FF_0.0', 'FD_0.0', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.6332518337408313</v>
+        <v>0.5550122249388753</v>
       </c>
       <c r="E68" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.4712713936430318</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9343629343629343</v>
+        <v>0.8491189427312776</v>
       </c>
       <c r="H68" t="n">
-        <v>1.113341413414247</v>
+        <v>1.022944470035619</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06023547205002355</v>
+        <v>0.01057053700061578</v>
       </c>
       <c r="J68" t="n">
-        <v>2.449194592262329</v>
+        <v>1.126229186372317</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'titular'})</t>
+          <t>frozenset({'FF_0.0', 'FD_0.0', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7597799511002445</v>
+        <v>0.5605134474327629</v>
       </c>
       <c r="E69" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7102689486552567</v>
+        <v>0.476161369193154</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9348350764279967</v>
+        <v>0.8495092693565975</v>
       </c>
       <c r="H69" t="n">
-        <v>1.113903994928043</v>
+        <v>1.023414701522381</v>
       </c>
       <c r="I69" t="n">
-        <v>0.07262966206562604</v>
+        <v>0.01089409436815891</v>
       </c>
       <c r="J69" t="n">
-        <v>2.466939841226716</v>
+        <v>1.129150278161652</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'titular'})</t>
+          <t>frozenset({'FD_0.0', 'FF_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.726161369193154</v>
+        <v>0.5959657701711492</v>
       </c>
       <c r="E70" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6797066014669927</v>
+        <v>0.5067237163814181</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9360269360269361</v>
+        <v>0.8502564102564103</v>
       </c>
       <c r="H70" t="n">
-        <v>1.115324156839088</v>
+        <v>0.9566846541812155</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07028144260256697</v>
+        <v>-0.02294268326946869</v>
       </c>
       <c r="J70" t="n">
-        <v>2.512900527602628</v>
+        <v>0.7429162340489672</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'titular', 'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>frozenset({'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8331295843520783</v>
       </c>
       <c r="E71" t="n">
-        <v>0.839242053789731</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8331295843520783</v>
+        <v>0.7102689486552567</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9374140302613481</v>
+        <v>0.8525311812179016</v>
       </c>
       <c r="H71" t="n">
-        <v>1.116976950843092</v>
+        <v>0.9863797825123671</v>
       </c>
       <c r="I71" t="n">
-        <v>0.08725064412575256</v>
+        <v>-0.009807599189388005</v>
       </c>
       <c r="J71" t="n">
-        <v>2.568593997689355</v>
+        <v>0.9201729737619967</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FD_0.0', 'FS_0.0'})</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'nota_1.0'})</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.5605134474327629</v>
+        <v>0.5843520782396088</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8300733496332519</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5550122249388753</v>
+        <v>0.4987775061124695</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9901853871319518</v>
+        <v>0.8535564853556487</v>
       </c>
       <c r="H72" t="n">
-        <v>1.114128812481343</v>
+        <v>1.028290434493256</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05685418547234883</v>
+        <v>0.01372241916296535</v>
       </c>
       <c r="J72" t="n">
-        <v>11.33482749252897</v>
+        <v>1.160356269647224</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'nota_1.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.5971882640586798</v>
+        <v>0.839242053789731</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5916870415647921</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9907881269191401</v>
+        <v>0.85360524399126</v>
       </c>
       <c r="H73" t="n">
-        <v>1.114806998376694</v>
+        <v>0.9876224746603264</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0609341467351342</v>
+        <v>-0.008978156515085378</v>
       </c>
       <c r="J73" t="n">
-        <v>12.07647378429757</v>
+        <v>0.9269240594095541</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'nota_1.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FS_0.0'})</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3020,142 +3020,142 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.5360635696821516</v>
+        <v>0.6778728606356969</v>
       </c>
       <c r="E74" t="n">
         <v>0.8887530562347188</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5311735941320294</v>
+        <v>0.5788508557457213</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9908779931584948</v>
+        <v>0.8539224526600541</v>
       </c>
       <c r="H74" t="n">
-        <v>1.114908113347522</v>
+        <v>0.9608095822227294</v>
       </c>
       <c r="I74" t="n">
-        <v>0.05474545824092397</v>
+        <v>-0.0236107208828259</v>
       </c>
       <c r="J74" t="n">
-        <v>12.19544621026884</v>
+        <v>0.7615608681215854</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>frozenset({'FS_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'mando'})</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.539119804400978</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5342298288508558</v>
+        <v>0.4272616136919316</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9909297052154197</v>
+        <v>0.8545232273838631</v>
       </c>
       <c r="H75" t="n">
-        <v>1.114966298302907</v>
+        <v>0.9886845827439887</v>
       </c>
       <c r="I75" t="n">
-        <v>0.05508545501282286</v>
+        <v>-0.004889975550122216</v>
       </c>
       <c r="J75" t="n">
-        <v>12.26497555012249</v>
+        <v>0.9327731092436979</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>frozenset({'FF_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'titular'})</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6430317848410758</v>
+        <v>0.8887530562347188</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6375305623471883</v>
+        <v>0.7597799511002445</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9914448669201521</v>
+        <v>0.8548830811554333</v>
       </c>
       <c r="H76" t="n">
-        <v>1.115545943797365</v>
+        <v>0.9891009340666824</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06603409831361606</v>
+        <v>-0.00837214029088762</v>
       </c>
       <c r="J76" t="n">
-        <v>13.00353164900844</v>
+        <v>0.935086153953117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>frozenset({'FD_0.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'RB_0.0'})</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>frozenset({'titular'})</t>
+          <t>frozenset({'FD_0.0'})</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.7163814180929096</v>
+        <v>0.6246943765281173</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8887530562347188</v>
+        <v>0.8643031784841075</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7102689486552567</v>
+        <v>0.5354523227383863</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9914675767918087</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H77" t="n">
-        <v>1.115571496307702</v>
+        <v>0.9917154980804203</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07358277389542145</v>
+        <v>-0.004473012476013394</v>
       </c>
       <c r="J77" t="n">
-        <v>13.03814180929076</v>
+        <v>0.9498777506112469</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>frozenset({'nota_1.0', 'tempo_jogado_2.0'})</t>
+          <t>frozenset({'FF_0.0', 'nota_1.0'})</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3164,61 +3164,2185 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6852078239608802</v>
+        <v>0.6650366748166259</v>
       </c>
       <c r="E78" t="n">
         <v>0.8887530562347188</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6797066014669927</v>
+        <v>0.5715158924205379</v>
       </c>
       <c r="G78" t="n">
-        <v>0.991971454058876</v>
+        <v>0.8593750000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1.116138444869547</v>
+        <v>0.9669446354883083</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0707260537658192</v>
+        <v>-0.01953748483091322</v>
       </c>
       <c r="J78" t="n">
-        <v>13.85642488454222</v>
+        <v>0.7910893778864448</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'FD_0.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.476161369193154</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.4095354523227384</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.8600770218228498</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.036145808322667</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01428658963062152</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.214429914088962</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.6925427872860636</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5959657701711492</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.8605472197705207</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.036712261814854</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.02110445896425772</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.218524651047631</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>frozenset({'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6778728606356969</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5843520782396088</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.8620378719567177</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9973790371436988</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.001535589815938487</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9835802291576773</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>frozenset({'RB_0.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5354523227383863</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4621026894865526</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.8630136986301371</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.03968366049993</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01763798638219527</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.240464547677262</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6430317848410758</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7597799511002445</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5550122249388753</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.8631178707224334</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.136010327032905</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.06644956689641968</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.754940912795435</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6925427872860636</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.597799511002445</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.8631950573698147</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9712428568480171</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.01770000777135472</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.813179272813314</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.6852078239608802</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7597799511002445</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5916870415647921</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.8635147190008919</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.136532647051858</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.07107987458228959</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.760043626252455</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'RB_0.0'})</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4951100244498777</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.4278728606356968</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.8641975308641975</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.041109838360697</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.01689522420358558</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.251278061791509</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7310513447432763</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.6332518337408313</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.8662207357859532</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9746472652997382</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.01647228316425653</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.8315709046454769</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'nota_1.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.4743276283618582</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.4119804400977995</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.8685567010309277</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.004921331602969</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.002017563261816901</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.032360132316985</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'tempo_jogado_2.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.6797066014669927</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5916870415647921</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.8705035971223021</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.007173893134432</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.004214465480239848</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.047881010594947</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'tempo_jogado_2.0', 'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6375305623471883</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5550122249388753</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.8705656759348033</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.007245718408301</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.003992533521439912</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.048383591415375</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6864303178484108</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.597799511002445</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.8708815672306321</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.007611205084381</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.004515605478207285</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.050948486636877</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6852078239608802</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5971882640586798</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.8715432649420161</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.008376790272375</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.004960963887112202</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.056362061939691</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.6430317848410758</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5605134474327629</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.8716730038022814</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.008526898317208</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.004739031928312265</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.057430046183103</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.726161369193154</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6332518337408313</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.8720538720538721</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.008967563423009</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.005628254254816834</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.060577789216318</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7854523227383863</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.6864303178484108</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.8739299610894943</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9833214692863911</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.01164283451198866</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.882421745298682</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>frozenset({'RB_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5287286063569682</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.4621026894865526</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.8739884393063585</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.01120586047044</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.005120874456752467</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.076860097350891</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'RB_0.0'})</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.4951100244498777</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.4327628361858191</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8740740740740741</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.011304940017811</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.004837668354445546</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.077592406155617</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.726161369193154</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.8748159057437407</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9843183093512791</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.01156885719238887</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.8886667625485397</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7597799511002445</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.8790664780763792</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9891009340666825</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.00837214029088762</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.9199016285620337</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'nota_1.0', 'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5360635696821516</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7597799511002445</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4712713936430318</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.8791334093500569</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.157089507398788</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.06398104088330409</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.987480970614013</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5672371638141809</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.4987775061124695</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.8793103448275863</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.017363312685948</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.008512622473562548</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.124345092560253</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>frozenset({'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8300733496332519</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.7310513447432763</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.8807069219440353</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.018979154385037</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.01361631028030674</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.137507923571493</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.7854523227383863</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.6925427872860636</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.8817120622568093</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.020142103148614</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.01367384819555129</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.14717378715738</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5385085574572127</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.476161369193154</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.88422247446084</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.023046653619473</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.01072671134199343</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.17204803681864</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5715158924205379</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.5067237163814181</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8866310160427807</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.025833339636485</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.01276071400816592</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.196948378465655</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0', 'nota_1.0', 'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5311735941320294</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.4712713936430318</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8872266973532796</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.02652254375528</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.01217636790789151</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.203270794870516</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'nota_1.0', 'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5360635696821516</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.476161369193154</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8882554161915621</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.027712772906221</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.01283992204733353</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.214348086422833</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>frozenset({'mando'})</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.4443765281173594</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'nota_1.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.4572127139364303</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.4095354523227384</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8957219251336899</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.036351534313095</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.01436505042413666</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.30129772428061</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6650366748166259</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8643031784841075</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.5959657701711492</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.896139705882353</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.036834907230219</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.02117245831863757</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.306532228400807</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'RB_0.0'})</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>frozenset({'tempo_jogado_2.0'})</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D111" t="n">
+        <v>0.5250611246943765</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.476161369193154</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9068684516880094</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.080580325536477</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.03550799253949943</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.726138447432765</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.4492665036674817</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4101466992665037</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9129251700680272</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.087797216483097</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.03310335602967462</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.846204538508557</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'nota_1.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.4743276283618582</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.4364303178484107</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.9201030927835051</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.096350079966361</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.03835462485279256</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.012067197728526</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FD_0.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4914425427872861</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.452322738386308</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9203980099502487</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.096701488913771</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0398834894578583</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.019521699266502</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5788508557457213</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5342298288508558</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9229144667370646</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.099699976388811</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.04843384783687332</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.085448973440069</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.597799511002445</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5550122249388753</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9284253578732106</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.10626648614754</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.05331373557068642</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.246018162766327</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6864303178484108</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.6375305623471883</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9287622439893143</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.106667903253109</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.06144937261255012</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.256639669926649</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5715158924205379</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.5311735941320294</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.9294117647058824</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.107441840538109</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.05153342280354617</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.277404237978811</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FF_0.0', 'nota_1.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5067237163814181</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.4712713936430318</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9300361881785283</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.108185873168297</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.04600754120312528</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.297729955315739</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0', 'titular', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6332518337408313</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5916870415647921</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9343629343629343</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.113341413414247</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.06023547205002355</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.449194592262329</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.7597799511002445</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.7102689486552567</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9348350764279967</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.113903994928043</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.07262966206562604</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.466939841226716</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>frozenset({'titular', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.726161369193154</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.6797066014669927</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.9360269360269361</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.115324156839088</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.07028144260256697</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.512900527602628</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>frozenset({'titular'})</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.839242053789731</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F123" t="n">
+        <v>0.8331295843520783</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9374140302613481</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.116976950843092</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.08725064412575256</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.568593997689355</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>frozenset({'mando', 'titular'})</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4443765281173594</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.4174816625916871</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.939477303988996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.119435447433356</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.0445421924785242</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.65615970215604</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4572127139364303</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.8887530562347188</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F125" t="n">
+        <v>0.452322738386308</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9893048128342246</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.113138014990916</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.04597354152593541</v>
+      </c>
+      <c r="J125" t="n">
+        <v>10.40158924205375</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4144254278728606</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.4101466992665037</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9896755162241888</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.113555120043173</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.04182483366311773</v>
+      </c>
+      <c r="J126" t="n">
+        <v>10.7750611246944</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>frozenset({'FF_0.0', 'nota_1.0', 'FD_0.0', 'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.476161369193154</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.4712713936430318</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9897304236200256</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.113616900304238</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.04808152151170786</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10.83267114914419</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5605134474327629</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.5550122249388753</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9901853871319518</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.114128812481343</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.05685418547234883</v>
+      </c>
+      <c r="J128" t="n">
+        <v>11.33482749252897</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'nota_1.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4407090464547677</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.4364303178484107</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9902912621359223</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.114247940064903</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.04474880590144725</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11.45843520782397</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>frozenset({'FD_0.0', 'tempo_jogado_2.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5971882640586798</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.5916870415647921</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9907881269191401</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.114806998376694</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.0609341467351342</v>
+      </c>
+      <c r="J130" t="n">
+        <v>12.07647378429757</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5360635696821516</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5311735941320294</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9908779931584948</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.114908113347522</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.05474545824092397</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12.19544621026884</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FS_0.0'})</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.539119804400978</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5342298288508558</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.9909297052154197</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.114966298302907</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.05508545501282286</v>
+      </c>
+      <c r="J132" t="n">
+        <v>12.26497555012249</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FF_0.0'})</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.6430317848410758</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.6375305623471883</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9914448669201521</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.115545943797365</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.06603409831361606</v>
+      </c>
+      <c r="J133" t="n">
+        <v>13.00353164900844</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'FD_0.0'})</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.7163814180929096</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7102689486552567</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9914675767918087</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.115571496307702</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.07358277389542145</v>
+      </c>
+      <c r="J134" t="n">
+        <v>13.03814180929076</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'nota_1.0'})</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6852078239608802</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.6797066014669927</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.991971454058876</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.116138444869547</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.0707260537658192</v>
+      </c>
+      <c r="J135" t="n">
+        <v>13.85642488454222</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.839242053789731</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F136" t="n">
         <v>0.8331295843520783</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G136" t="n">
         <v>0.9927166788055354</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H136" t="n">
         <v>1.116976950843092</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I136" t="n">
         <v>0.08725064412575256</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J136" t="n">
         <v>15.27420537897323</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>frozenset({'mando', 'tempo_jogado_2.0'})</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.4205378973105134</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.4174816625916871</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.992732558139535</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.116994817824126</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.04372732109444594</v>
+      </c>
+      <c r="J137" t="n">
+        <v>15.3075794621029</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>frozenset({'tempo_jogado_2.0', 'RB_0.0'})</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>frozenset({'titular'})</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.4792176039119804</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8887530562347188</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.476161369193154</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.9936224489795918</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.117996098026556</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.05025525911490253</v>
+      </c>
+      <c r="J138" t="n">
+        <v>17.44352078239611</v>
       </c>
     </row>
   </sheetData>
